--- a/reportes/10.10.2.253.xlsx
+++ b/reportes/10.10.2.253.xlsx
@@ -31,10 +31,10 @@
     <t>No. Expediente Clínico</t>
   </si>
   <si>
-    <t>CANTÉ   MORALES  KEILY  ABIGAIL</t>
-  </si>
-  <si>
-    <t>2010-92643</t>
+    <t>BARRIOS   DE LEÓN  JENNIFER  MAYONI</t>
+  </si>
+  <si>
+    <t>8304/201762164</t>
   </si>
   <si>
     <t>Fecha de Nacimiento ( Dia Mes Año)</t>
@@ -49,13 +49,13 @@
     <t>Sexo M  (   )   F  (    )</t>
   </si>
   <si>
-    <t>1994-10-04</t>
-  </si>
-  <si>
-    <t>23</t>
-  </si>
-  <si>
-    <t>GUATEMALA</t>
+    <t>1988-12-19</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>SAN JOSÉ EL RODEO SAN MARCOS</t>
   </si>
   <si>
     <t>FEMENINO</t>
@@ -82,7 +82,7 @@
     <t>GUATEMALTECA</t>
   </si>
   <si>
-    <t>2535032720101</t>
+    <t>DPI 1597776821214</t>
   </si>
   <si>
     <t>En caso de emergencia notificar a:</t>
@@ -97,22 +97,22 @@
     <t>Teléfono</t>
   </si>
   <si>
-    <t>HELMA LOPEZ</t>
-  </si>
-  <si>
-    <t>SUEGRA</t>
-  </si>
-  <si>
-    <t>13 SV FINSL LT 37 ST A LA ISLA</t>
-  </si>
-  <si>
-    <t>58714714</t>
+    <t>SAMUEL SY</t>
+  </si>
+  <si>
+    <t>ESPOSO</t>
+  </si>
+  <si>
+    <t>LOTE 18 MANZ. A SECT. SAN PEDRO AYAMPUC</t>
+  </si>
+  <si>
+    <t>46491184</t>
   </si>
   <si>
     <t>Fecha de la asistencia Médica</t>
   </si>
   <si>
-    <t>Hora: 7:56:23</t>
+    <t>Hora: 19:33:8</t>
   </si>
   <si>
     <t>Area de urgencia: OBTESTRICIA</t>

--- a/reportes/10.10.2.253.xlsx
+++ b/reportes/10.10.2.253.xlsx
@@ -31,10 +31,10 @@
     <t>No. Expediente Clínico</t>
   </si>
   <si>
-    <t>BARRIOS   DE LEÓN  JENNIFER  MAYONI</t>
-  </si>
-  <si>
-    <t>8304/201762164</t>
+    <t xml:space="preserve">COC  PIRIR  CATALINA  </t>
+  </si>
+  <si>
+    <t>5142/201769528</t>
   </si>
   <si>
     <t>Fecha de Nacimiento ( Dia Mes Año)</t>
@@ -49,13 +49,13 @@
     <t>Sexo M  (   )   F  (    )</t>
   </si>
   <si>
-    <t>1988-12-19</t>
-  </si>
-  <si>
-    <t>28</t>
-  </si>
-  <si>
-    <t>SAN JOSÉ EL RODEO SAN MARCOS</t>
+    <t>1995-11-08</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>SAN RAYMUNDO</t>
   </si>
   <si>
     <t>FEMENINO</t>
@@ -82,7 +82,7 @@
     <t>GUATEMALTECA</t>
   </si>
   <si>
-    <t>DPI 1597776821214</t>
+    <t>2830725550111</t>
   </si>
   <si>
     <t>En caso de emergencia notificar a:</t>
@@ -97,28 +97,28 @@
     <t>Teléfono</t>
   </si>
   <si>
-    <t>SAMUEL SY</t>
+    <t>CESAR CHAMALÉ</t>
   </si>
   <si>
     <t>ESPOSO</t>
   </si>
   <si>
-    <t>LOTE 18 MANZ. A SECT. SAN PEDRO AYAMPUC</t>
-  </si>
-  <si>
-    <t>46491184</t>
+    <t>CANTON PONIENTE  CHUARRANCHO</t>
+  </si>
+  <si>
+    <t>40497740</t>
   </si>
   <si>
     <t>Fecha de la asistencia Médica</t>
   </si>
   <si>
-    <t>Hora: 19:33:8</t>
-  </si>
-  <si>
-    <t>Area de urgencia: OBTESTRICIA</t>
-  </si>
-  <si>
-    <t>23/10/2017</t>
+    <t>Hora: 12:17:22</t>
+  </si>
+  <si>
+    <t>Area de urgencia: GINECOLOGIA</t>
+  </si>
+  <si>
+    <t>10/11/2017</t>
   </si>
   <si>
     <t>MEDICINA</t>

--- a/reportes/10.10.2.253.xlsx
+++ b/reportes/10.10.2.253.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="53">
   <si>
     <t>HOSPITAL GENERAL SAN JUAN DE DIOS</t>
   </si>
@@ -31,10 +31,10 @@
     <t>No. Expediente Clínico</t>
   </si>
   <si>
-    <t xml:space="preserve">COC  PIRIR  CATALINA  </t>
-  </si>
-  <si>
-    <t>5142/201769528</t>
+    <t>TORRES  CHAN  JESSICA  MARIBEL</t>
+  </si>
+  <si>
+    <t>/201773345</t>
   </si>
   <si>
     <t>Fecha de Nacimiento ( Dia Mes Año)</t>
@@ -49,13 +49,13 @@
     <t>Sexo M  (   )   F  (    )</t>
   </si>
   <si>
-    <t>1995-11-08</t>
-  </si>
-  <si>
-    <t>22</t>
-  </si>
-  <si>
-    <t>SAN RAYMUNDO</t>
+    <t>1988-12-09</t>
+  </si>
+  <si>
+    <t>28 AÑOS</t>
+  </si>
+  <si>
+    <t>GUATEMALA</t>
   </si>
   <si>
     <t>FEMENINO</t>
@@ -73,16 +73,16 @@
     <t>Documento de Identificación</t>
   </si>
   <si>
-    <t>CASADO</t>
-  </si>
-  <si>
-    <t>AMA DE CASA</t>
+    <t>SOLTERO</t>
+  </si>
+  <si>
+    <t>MEDICO</t>
   </si>
   <si>
     <t>GUATEMALTECA</t>
   </si>
   <si>
-    <t>2830725550111</t>
+    <t/>
   </si>
   <si>
     <t>En caso de emergencia notificar a:</t>
@@ -97,28 +97,28 @@
     <t>Teléfono</t>
   </si>
   <si>
-    <t>CESAR CHAMALÉ</t>
-  </si>
-  <si>
-    <t>ESPOSO</t>
-  </si>
-  <si>
-    <t>CANTON PONIENTE  CHUARRANCHO</t>
-  </si>
-  <si>
-    <t>40497740</t>
+    <t>ALEXANDER TORRES</t>
+  </si>
+  <si>
+    <t>HERMANO</t>
+  </si>
+  <si>
+    <t>4A CALLE A 15-27 MIXCO</t>
+  </si>
+  <si>
+    <t>59591912</t>
   </si>
   <si>
     <t>Fecha de la asistencia Médica</t>
   </si>
   <si>
-    <t>Hora: 12:17:22</t>
-  </si>
-  <si>
-    <t>Area de urgencia: GINECOLOGIA</t>
-  </si>
-  <si>
-    <t>10/11/2017</t>
+    <t>Hora: 10:30:14</t>
+  </si>
+  <si>
+    <t>Area de urgencia: null</t>
+  </si>
+  <si>
+    <t>20/11/2017</t>
   </si>
   <si>
     <t>MEDICINA</t>
@@ -139,9 +139,6 @@
     <t xml:space="preserve">Tipo de Consulta </t>
   </si>
   <si>
-    <t>urgencia</t>
-  </si>
-  <si>
     <t>URGENCIA</t>
   </si>
   <si>
@@ -149,9 +146,6 @@
   </si>
   <si>
     <t>MOTIVO DE CONSULTA</t>
-  </si>
-  <si>
-    <t/>
   </si>
   <si>
     <t>HISTORIA DE LA ENFERMEDAD</t>
@@ -1111,9 +1105,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="25"/>
-      <c r="D16" s="26" t="s">
-        <v>41</v>
-      </c>
+      <c r="D16" s="26"/>
       <c r="E16" s="26"/>
       <c r="F16" s="26"/>
       <c r="G16" s="26"/>
@@ -1122,11 +1114,11 @@
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="27"/>
       <c r="B17" s="23" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C17" s="28"/>
       <c r="D17" s="21" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E17" s="21"/>
       <c r="F17" s="21"/>
@@ -1135,7 +1127,7 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="30" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B18" s="30"/>
       <c r="C18" s="30"/>
@@ -1147,7 +1139,7 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
-        <v>45</v>
+        <v>22</v>
       </c>
       <c r="B19" s="6"/>
       <c r="C19" s="6"/>
@@ -1169,7 +1161,7 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="30" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B21" s="30"/>
       <c r="C21" s="30"/>
@@ -1181,7 +1173,7 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
-        <v>45</v>
+        <v>22</v>
       </c>
       <c r="B22" s="6"/>
       <c r="C22" s="6"/>
@@ -1203,7 +1195,7 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="30" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B24" s="30"/>
       <c r="C24" s="30"/>
@@ -1215,7 +1207,7 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
-        <v>45</v>
+        <v>22</v>
       </c>
       <c r="B25" s="6"/>
       <c r="C25" s="6"/>
@@ -1309,13 +1301,13 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="18" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B34" s="18"/>
       <c r="C34" s="18"/>
       <c r="D34" s="18"/>
       <c r="F34" s="35" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G34" s="35"/>
       <c r="H34" s="35"/>
@@ -1326,7 +1318,7 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="36" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
@@ -1338,13 +1330,13 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="38" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B37" s="38"/>
       <c r="C37" s="38"/>
       <c r="D37" s="38"/>
       <c r="E37" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="H37" s="34"/>
     </row>
@@ -1354,7 +1346,7 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="39" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B39" s="39"/>
       <c r="C39" s="39"/>
@@ -1424,7 +1416,7 @@
       <c r="C46" s="41"/>
       <c r="D46" s="41"/>
       <c r="E46" s="41" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F46" s="41"/>
       <c r="G46" s="41"/>

--- a/reportes/10.10.2.253.xlsx
+++ b/reportes/10.10.2.253.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="52">
   <si>
     <t>HOSPITAL GENERAL SAN JUAN DE DIOS</t>
   </si>
@@ -31,10 +31,10 @@
     <t>No. Expediente Clínico</t>
   </si>
   <si>
-    <t>TORRES  CHAN  JESSICA  MARIBEL</t>
-  </si>
-  <si>
-    <t>/201773345</t>
+    <t>RODAS  CORADO  LUVIA   VANESA</t>
+  </si>
+  <si>
+    <t>/201774247</t>
   </si>
   <si>
     <t>Fecha de Nacimiento ( Dia Mes Año)</t>
@@ -49,10 +49,10 @@
     <t>Sexo M  (   )   F  (    )</t>
   </si>
   <si>
-    <t>1988-12-09</t>
-  </si>
-  <si>
-    <t>28 AÑOS</t>
+    <t>1999-01-14</t>
+  </si>
+  <si>
+    <t>19 AÑOS</t>
   </si>
   <si>
     <t>GUATEMALA</t>
@@ -76,7 +76,7 @@
     <t>SOLTERO</t>
   </si>
   <si>
-    <t>MEDICO</t>
+    <t>AMA DE CASA</t>
   </si>
   <si>
     <t>GUATEMALTECA</t>
@@ -97,28 +97,25 @@
     <t>Teléfono</t>
   </si>
   <si>
-    <t>ALEXANDER TORRES</t>
-  </si>
-  <si>
-    <t>HERMANO</t>
-  </si>
-  <si>
-    <t>4A CALLE A 15-27 MIXCO</t>
-  </si>
-  <si>
-    <t>59591912</t>
+    <t>MARCO MONTENEGRO</t>
+  </si>
+  <si>
+    <t>ESPOSO</t>
+  </si>
+  <si>
+    <t>41701671</t>
   </si>
   <si>
     <t>Fecha de la asistencia Médica</t>
   </si>
   <si>
-    <t>Hora: 10:30:14</t>
+    <t>Hora: 12:34:39</t>
   </si>
   <si>
     <t>Area de urgencia: null</t>
   </si>
   <si>
-    <t>20/11/2017</t>
+    <t>22/11/2017</t>
   </si>
   <si>
     <t>MEDICINA</t>
@@ -1053,25 +1050,25 @@
         <v>28</v>
       </c>
       <c r="E13" s="14" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="F13" s="14"/>
       <c r="G13" s="14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H13" s="14"/>
     </row>
     <row r="14" ht="24" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="18" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B14" s="18"/>
       <c r="C14" s="18"/>
       <c r="D14" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="E14" s="21" t="s">
         <v>32</v>
-      </c>
-      <c r="E14" s="21" t="s">
-        <v>33</v>
       </c>
       <c r="F14" s="21"/>
       <c r="G14" s="21"/>
@@ -1079,29 +1076,29 @@
     </row>
     <row r="15" ht="15.75" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B15" s="12"/>
       <c r="C15" s="12"/>
       <c r="D15" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="E15" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="E15" s="23" t="s">
+      <c r="F15" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="F15" s="23" t="s">
+      <c r="G15" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="G15" s="23" t="s">
+      <c r="H15" s="24" t="s">
         <v>38</v>
-      </c>
-      <c r="H15" s="24" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="25" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="25"/>
@@ -1114,11 +1111,11 @@
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="27"/>
       <c r="B17" s="23" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C17" s="28"/>
       <c r="D17" s="21" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E17" s="21"/>
       <c r="F17" s="21"/>
@@ -1127,7 +1124,7 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="30" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B18" s="30"/>
       <c r="C18" s="30"/>
@@ -1161,7 +1158,7 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="30" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B21" s="30"/>
       <c r="C21" s="30"/>
@@ -1195,7 +1192,7 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="30" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B24" s="30"/>
       <c r="C24" s="30"/>
@@ -1301,13 +1298,13 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B34" s="18"/>
       <c r="C34" s="18"/>
       <c r="D34" s="18"/>
       <c r="F34" s="35" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G34" s="35"/>
       <c r="H34" s="35"/>
@@ -1318,7 +1315,7 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="36" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
@@ -1330,13 +1327,13 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="38" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B37" s="38"/>
       <c r="C37" s="38"/>
       <c r="D37" s="38"/>
       <c r="E37" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H37" s="34"/>
     </row>
@@ -1346,7 +1343,7 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="39" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B39" s="39"/>
       <c r="C39" s="39"/>
@@ -1416,7 +1413,7 @@
       <c r="C46" s="41"/>
       <c r="D46" s="41"/>
       <c r="E46" s="41" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F46" s="41"/>
       <c r="G46" s="41"/>
